--- a/Figure5/Figure 5D-stats.xlsx
+++ b/Figure5/Figure 5D-stats.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10912"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11211"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dengyu/Dropbox (Brain Modulation Lab)/Dengyu/Thal_lexicality_paper/JNS/FiguresandTables/Figure5_stats/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dengyu/Documents/GitHub/ThalLexicality/Figure5/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E459EAD6-B212-D345-B659-5B4C83A0B870}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21753423-99C3-2545-AAB5-63E4624D0314}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2780" yWindow="1500" windowWidth="28040" windowHeight="17440" xr2:uid="{45336858-817E-2040-91F4-E0327E26BB9C}"/>
   </bookViews>
@@ -32,12 +32,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>t_stat</t>
   </si>
   <si>
     <t>p_val</t>
+  </si>
+  <si>
+    <t>cohen_d</t>
   </si>
 </sst>
 </file>
@@ -389,7 +392,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C6A4C6A-B8AE-E540-ABF7-31342A5C1BEC}">
-  <dimension ref="A1:AO2"/>
+  <dimension ref="A1:AO3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
@@ -524,126 +527,251 @@
     </row>
     <row r="2" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2">
+        <v>-0.25156316311683502</v>
+      </c>
+      <c r="C2">
+        <v>-7.0944245533957395E-2</v>
+      </c>
+      <c r="D2">
+        <v>0.21889391355575999</v>
+      </c>
+      <c r="E2">
+        <v>-1.3444460224285601E-4</v>
+      </c>
+      <c r="F2">
+        <v>-0.18862143876870499</v>
+      </c>
+      <c r="G2">
+        <v>-0.18411578799495801</v>
+      </c>
+      <c r="H2">
+        <v>-5.8741896061659998E-2</v>
+      </c>
+      <c r="I2">
+        <v>8.4948213162170799E-2</v>
+      </c>
+      <c r="J2">
+        <v>-2.6911114349754298E-2</v>
+      </c>
+      <c r="K2">
+        <v>-0.238006963543485</v>
+      </c>
+      <c r="L2">
+        <v>-0.61098397071721899</v>
+      </c>
+      <c r="M2">
+        <v>-0.45136761870005299</v>
+      </c>
+      <c r="N2">
+        <v>-0.19496236308559201</v>
+      </c>
+      <c r="O2">
+        <v>-7.0699237866901896E-2</v>
+      </c>
+      <c r="P2">
+        <v>5.4144698304066298E-2</v>
+      </c>
+      <c r="Q2">
+        <v>0.148032354373486</v>
+      </c>
+      <c r="R2">
+        <v>0.161105173006894</v>
+      </c>
+      <c r="S2">
+        <v>0.35031788589713098</v>
+      </c>
+      <c r="T2">
+        <v>0.122587774479799</v>
+      </c>
+      <c r="U2">
+        <v>-0.15500764167676601</v>
+      </c>
+      <c r="V2">
+        <v>1.2821022192783401E-3</v>
+      </c>
+      <c r="W2">
+        <v>6.2465710413905799E-2</v>
+      </c>
+      <c r="X2">
+        <v>-6.8393748077761801E-2</v>
+      </c>
+      <c r="Y2">
+        <v>-0.30984650662658803</v>
+      </c>
+      <c r="Z2">
+        <v>-0.37787750359097599</v>
+      </c>
+      <c r="AA2">
+        <v>-0.544397301606937</v>
+      </c>
+      <c r="AB2">
+        <v>-0.44601620775045098</v>
+      </c>
+      <c r="AC2">
+        <v>-0.589557831246592</v>
+      </c>
+      <c r="AD2">
+        <v>-0.28390881471217899</v>
+      </c>
+      <c r="AE2">
+        <v>-0.214719647222787</v>
+      </c>
+      <c r="AF2">
+        <v>-0.18084103339758101</v>
+      </c>
+      <c r="AG2">
+        <v>-1.9680947316261199E-2</v>
+      </c>
+      <c r="AH2">
+        <v>-9.3113658496708399E-2</v>
+      </c>
+      <c r="AI2">
+        <v>-0.335565683474291</v>
+      </c>
+      <c r="AJ2">
+        <v>-0.40425407738739899</v>
+      </c>
+      <c r="AK2">
+        <v>-0.23920498694881401</v>
+      </c>
+      <c r="AL2">
+        <v>-0.37032967347680401</v>
+      </c>
+      <c r="AM2">
+        <v>-0.87861333684991905</v>
+      </c>
+      <c r="AN2">
+        <v>-0.52551139495274601</v>
+      </c>
+      <c r="AO2">
+        <v>-7.7800048243040099E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
         <v>1</v>
       </c>
-      <c r="B2">
+      <c r="B3">
         <v>0.211354037717223</v>
       </c>
-      <c r="C2">
+      <c r="C3">
         <v>0.72058141762746897</v>
       </c>
-      <c r="D2">
+      <c r="D3">
         <v>0.27497389102728398</v>
       </c>
-      <c r="E2">
+      <c r="E3">
         <v>0.99945846281662698</v>
       </c>
-      <c r="F2">
+      <c r="F3">
         <v>0.34536892267968999</v>
       </c>
-      <c r="G2">
+      <c r="G3">
         <v>0.35681080272390397</v>
       </c>
-      <c r="H2">
+      <c r="H3">
         <v>0.76701480930468102</v>
       </c>
-      <c r="I2">
+      <c r="I3">
         <v>0.66861823530420805</v>
       </c>
-      <c r="J2">
+      <c r="J3">
         <v>0.89195582402130502</v>
       </c>
-      <c r="K2">
+      <c r="K3">
         <v>0.23624124249300699</v>
       </c>
-      <c r="L2">
+      <c r="L3">
         <v>4.5681583864797502E-3</v>
       </c>
-      <c r="M2">
+      <c r="M3">
         <v>2.9973828698872301E-2</v>
       </c>
-      <c r="N2">
+      <c r="N3">
         <v>0.32969119926166501</v>
       </c>
-      <c r="O2">
+      <c r="O3">
         <v>0.72150375655519305</v>
       </c>
-      <c r="P2">
+      <c r="P3">
         <v>0.78475235357200801</v>
       </c>
-      <c r="Q2">
+      <c r="Q3">
         <v>0.457409374368766</v>
       </c>
-      <c r="R2">
+      <c r="R3">
         <v>0.419139271191316</v>
       </c>
-      <c r="S2">
+      <c r="S3">
         <v>8.6189616609098296E-2</v>
       </c>
-      <c r="T2">
+      <c r="T3">
         <v>0.53758447392447595</v>
       </c>
-      <c r="U2">
+      <c r="U3">
         <v>0.43673560269086598</v>
       </c>
-      <c r="V2">
+      <c r="V3">
         <v>0.99483578420985597</v>
       </c>
-      <c r="W2">
+      <c r="W3">
         <v>0.75274091585274905</v>
       </c>
-      <c r="X2">
+      <c r="X3">
         <v>0.730203722697639</v>
       </c>
-      <c r="Y2">
+      <c r="Y3">
         <v>0.126697426447515</v>
       </c>
-      <c r="Z2">
+      <c r="Z3">
         <v>6.5443586056452202E-2</v>
       </c>
-      <c r="AA2">
+      <c r="AA3">
         <v>1.02738687932994E-2</v>
       </c>
-      <c r="AB2">
+      <c r="AB3">
         <v>3.1794760783737303E-2</v>
       </c>
-      <c r="AC2">
+      <c r="AC3">
         <v>5.9493435826056904E-3</v>
       </c>
-      <c r="AD2">
+      <c r="AD3">
         <v>0.16013830270582299</v>
       </c>
-      <c r="AE2">
+      <c r="AE3">
         <v>0.284014613253948</v>
       </c>
-      <c r="AF2">
+      <c r="AF3">
         <v>0.365284166505561</v>
       </c>
-      <c r="AG2">
+      <c r="AG3">
         <v>0.92086411623889897</v>
       </c>
-      <c r="AH2">
+      <c r="AH3">
         <v>0.63905929285014695</v>
       </c>
-      <c r="AI2">
+      <c r="AI3">
         <v>9.9452938269037297E-2</v>
       </c>
-      <c r="AJ2">
+      <c r="AJ3">
         <v>4.9818943869109802E-2</v>
       </c>
-      <c r="AK2">
+      <c r="AK3">
         <v>0.233956785302501</v>
       </c>
-      <c r="AL2">
+      <c r="AL3">
         <v>7.0640895690083E-2</v>
       </c>
-      <c r="AM2">
+      <c r="AM3">
         <v>1.4341105329245601E-4</v>
       </c>
-      <c r="AN2">
+      <c r="AN3">
         <v>1.28503071588069E-2</v>
       </c>
-      <c r="AO2">
+      <c r="AO3">
         <v>0.694951944367317</v>
       </c>
     </row>
